--- a/test/FQ_GHR6-v1.xlsx
+++ b/test/FQ_GHR6-v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="1742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="1456">
   <si>
     <t>type</t>
   </si>
@@ -4451,966 +4451,6 @@
     <t>facility_name_list</t>
   </si>
   <si>
-    <t>Agogo_Presbyterian_Hospital</t>
-  </si>
-  <si>
-    <t>Agogo Presbyterian Hospital</t>
-  </si>
-  <si>
-    <t>ABEDWEM_ABEDJUM</t>
-  </si>
-  <si>
-    <t>Nkawie_Toase_Government_Hospital</t>
-  </si>
-  <si>
-    <t>Nkawie-Toase Government Hospital</t>
-  </si>
-  <si>
-    <t>ALFRED_ONYINA_MENSAHS_HOUSE</t>
-  </si>
-  <si>
-    <t>Asuofua_Health_Centre</t>
-  </si>
-  <si>
-    <t>Asuofua Health Centre</t>
-  </si>
-  <si>
-    <t>Manhyia_Hospital</t>
-  </si>
-  <si>
-    <t>Manhyia Hospital</t>
-  </si>
-  <si>
-    <t>ASH_TOWN_NEW_SPRING_PHARMACY</t>
-  </si>
-  <si>
-    <t>St_Peters_Hospital</t>
-  </si>
-  <si>
-    <t>St. Peters Hospital</t>
-  </si>
-  <si>
-    <t>ATIA</t>
-  </si>
-  <si>
-    <t>Atiemo_CHPS</t>
-  </si>
-  <si>
-    <t>Atiemo CHPS</t>
-  </si>
-  <si>
-    <t>ATIEMO_NKWANTA</t>
-  </si>
-  <si>
-    <t>Kumasi_South_Hospital</t>
-  </si>
-  <si>
-    <t>Kumasi South Hospital</t>
-  </si>
-  <si>
-    <t>AVE_MARIA_DAY_CARE</t>
-  </si>
-  <si>
-    <t>Nyinahin_Government_Hospital</t>
-  </si>
-  <si>
-    <t>Nyinahin Government Hospital</t>
-  </si>
-  <si>
-    <t>CMB_COCOA_SHED</t>
-  </si>
-  <si>
-    <t>Kuntunase_Government_Hospital</t>
-  </si>
-  <si>
-    <t>Kuntunase Government Hospital</t>
-  </si>
-  <si>
-    <t>COMMUNITY_CENTRE_WOARAKOSE</t>
-  </si>
-  <si>
-    <t>Woarakose_CHPS</t>
-  </si>
-  <si>
-    <t>Woarakose CHPS</t>
-  </si>
-  <si>
-    <t>Effiduase_Government_Hospital</t>
-  </si>
-  <si>
-    <t>Effiduase Government Hospital</t>
-  </si>
-  <si>
-    <t>ECG_SUB_STATION</t>
-  </si>
-  <si>
-    <t>KADMAT_INTERNATIONAL_SCHOOL</t>
-  </si>
-  <si>
-    <t>KONKROMASE_CHURCH_OF_CHRIST</t>
-  </si>
-  <si>
-    <t>Maternal_and_Child_Hospital</t>
-  </si>
-  <si>
-    <t>Maternal and Child Hospital</t>
-  </si>
-  <si>
-    <t>KUMASI_POLYTECHNIC</t>
-  </si>
-  <si>
-    <t>Obuasi_Government_Hospital</t>
-  </si>
-  <si>
-    <t>Obuasi Government Hospital</t>
-  </si>
-  <si>
-    <t>KUNKA_HEALTH_CENTRE</t>
-  </si>
-  <si>
-    <t>Kunka_Health_Centre</t>
-  </si>
-  <si>
-    <t>Kunka Health Centre</t>
-  </si>
-  <si>
-    <t>Kunka_CHPS</t>
-  </si>
-  <si>
-    <t>Kunka CHPS</t>
-  </si>
-  <si>
-    <t>Mampong_Government_Hospital</t>
-  </si>
-  <si>
-    <t>Mampong Government Hospital</t>
-  </si>
-  <si>
-    <t>MOSQUE</t>
-  </si>
-  <si>
-    <t>Bosomkyekye_CHPS</t>
-  </si>
-  <si>
-    <t>Bosomkyekye CHPS</t>
-  </si>
-  <si>
-    <t>St_Patricks_Hospital_Offinso</t>
-  </si>
-  <si>
-    <t>St. Patrick's Hospital Offinso</t>
-  </si>
-  <si>
-    <t>PENNYKROM</t>
-  </si>
-  <si>
-    <t>Offinso_Health_Centre</t>
-  </si>
-  <si>
-    <t>Offinso Health Centre</t>
-  </si>
-  <si>
-    <t>Tafo_Government_Hospital</t>
-  </si>
-  <si>
-    <t>Tafo Government Hospital</t>
-  </si>
-  <si>
-    <t>PLT_8,_BLOCK_20_243</t>
-  </si>
-  <si>
-    <t>PLT120,_BLKXVIII</t>
-  </si>
-  <si>
-    <t>SDA_SENIOR_HIGH_SCHOOL</t>
-  </si>
-  <si>
-    <t>Afrancho_Health_Centre</t>
-  </si>
-  <si>
-    <t>Afrancho Health Centre</t>
-  </si>
-  <si>
-    <t>ZONGO</t>
-  </si>
-  <si>
-    <t>Amadukrom_Dormaa_Presbyterian_Hospital</t>
-  </si>
-  <si>
-    <t>Amadukrom Dormaa Presbyterian Hospital</t>
-  </si>
-  <si>
-    <t>AMADUKROM_GESEWOBRE</t>
-  </si>
-  <si>
-    <t>Berekum_Holy_Family_Hospital</t>
-  </si>
-  <si>
-    <t>Berekum Holy Family Hospital</t>
-  </si>
-  <si>
-    <t>BIADAN_METHODIST_PRIMARY/JHS</t>
-  </si>
-  <si>
-    <t>Kintampo_Municipal_Hospital</t>
-  </si>
-  <si>
-    <t>Kintampo Municipal Hospital</t>
-  </si>
-  <si>
-    <t>DAWADAWA_GOIL_FILLING_STATION</t>
-  </si>
-  <si>
-    <t>Dormaa_Presbyterian_Hospital</t>
-  </si>
-  <si>
-    <t>Dormaa Presbyterian Hospital</t>
-  </si>
-  <si>
-    <t>DORMAA_AHENKRO_CHURCH_OF_THE_LORD_BROTHER_HOOD</t>
-  </si>
-  <si>
-    <t>Sunyani_Municipal_Hospital</t>
-  </si>
-  <si>
-    <t>Sunyani Municipal Hospital</t>
-  </si>
-  <si>
-    <t>FIAPRE_MARKET</t>
-  </si>
-  <si>
-    <t>Fiapre_Health_Centre</t>
-  </si>
-  <si>
-    <t>Fiapre Health Centre</t>
-  </si>
-  <si>
-    <t>Sene_District_Hospital</t>
-  </si>
-  <si>
-    <t>Sene District Hospital</t>
-  </si>
-  <si>
-    <t>NTON_ABOMA_ST_JOSEPHS_R/C_CHURCH</t>
-  </si>
-  <si>
-    <t>Wenchi_Methodist_Hospital</t>
-  </si>
-  <si>
-    <t>Wenchi Methodist Hospital</t>
-  </si>
-  <si>
-    <t>OUR_LADY_FATIMA_ROMAN_CATHOLIC_CHURCH</t>
-  </si>
-  <si>
-    <t>Wenchi_FP_Centre_Clinic</t>
-  </si>
-  <si>
-    <t>Wenchi FP Centre (Clinic)</t>
-  </si>
-  <si>
-    <t>Atebubu_District_Hospital</t>
-  </si>
-  <si>
-    <t>Atebubu District Hospital</t>
-  </si>
-  <si>
-    <t>P_T_KOFIS_HOUSE</t>
-  </si>
-  <si>
-    <t>Techiman_Holy_Family_Hospital</t>
-  </si>
-  <si>
-    <t>Techiman Holy Family Hospital</t>
-  </si>
-  <si>
-    <t>THE_NEW_MARKET</t>
-  </si>
-  <si>
-    <t>Diaso_Health_Centre</t>
-  </si>
-  <si>
-    <t>Diaso Health Centre</t>
-  </si>
-  <si>
-    <t>ADABOI</t>
-  </si>
-  <si>
-    <t>Swedru_Government_Hospital</t>
-  </si>
-  <si>
-    <t>Swedru Government Hospital</t>
-  </si>
-  <si>
-    <t>AGONAMAN_CLINIC</t>
-  </si>
-  <si>
-    <t>Abura_Dunkwa_District_Hospital</t>
-  </si>
-  <si>
-    <t>Abura Dunkwa District Hospital</t>
-  </si>
-  <si>
-    <t>ASUANSI_PRIMARY_AND_JHS</t>
-  </si>
-  <si>
-    <t>Asuansi_Rural_Clinic</t>
-  </si>
-  <si>
-    <t>Asuansi Rural Clinic</t>
-  </si>
-  <si>
-    <t>Asuansi_CHPS</t>
-  </si>
-  <si>
-    <t>Asuansi CHPS</t>
-  </si>
-  <si>
-    <t>Manso_Health_Centre</t>
-  </si>
-  <si>
-    <t>Manso Health Centre</t>
-  </si>
-  <si>
-    <t>BUNSU</t>
-  </si>
-  <si>
-    <t>Ankaful_General/Leprosy_Hospital</t>
-  </si>
-  <si>
-    <t>Ankaful General/Leprosy Hospital</t>
-  </si>
-  <si>
-    <t>ELMINA_ST_JAMES_ANGLICAN_CHURCH</t>
-  </si>
-  <si>
-    <t>Elmina_Health_Centre</t>
-  </si>
-  <si>
-    <t>Elmina Health Centre</t>
-  </si>
-  <si>
-    <t>Apam_St_Luke_Catholic_Hospital</t>
-  </si>
-  <si>
-    <t>Apam St. Luke Catholic Hospital</t>
-  </si>
-  <si>
-    <t>KISS_APPLE_BAR_&amp;_RESTAURANT</t>
-  </si>
-  <si>
-    <t>Buduburam_Reproductive_and_Child_Health_Clinic</t>
-  </si>
-  <si>
-    <t>Buduburam Reproductive and Child Health Clinic</t>
-  </si>
-  <si>
-    <t>St_Gregory_Catholic_Hospital</t>
-  </si>
-  <si>
-    <t>St. Gregory Catholic Hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apam St. Luke Catholic Hospital </t>
-  </si>
-  <si>
-    <t>MPRUMEM_METHODIST_JHS</t>
-  </si>
-  <si>
-    <t>Mprumem_CHPS</t>
-  </si>
-  <si>
-    <t>Mprumem CHPS</t>
-  </si>
-  <si>
-    <t>Awutu_Health_Centre</t>
-  </si>
-  <si>
-    <t>Awutu Health Centre</t>
-  </si>
-  <si>
-    <t>OKWAMPA_NO1</t>
-  </si>
-  <si>
-    <t>Saltpond_District_Hospital</t>
-  </si>
-  <si>
-    <t>Saltpond District Hospital</t>
-  </si>
-  <si>
-    <t>SHELL_FILLING_STATION</t>
-  </si>
-  <si>
-    <t>Oda_Hospital</t>
-  </si>
-  <si>
-    <t>Oda Hospital</t>
-  </si>
-  <si>
-    <t>AKIM_BATABI_PRESBY_PRIM_SCHOOL</t>
-  </si>
-  <si>
-    <t>AKIM_ODA_CHRIST_RESURRECTION_CHURCH</t>
-  </si>
-  <si>
-    <t>Kibi_Government_Hospital</t>
-  </si>
-  <si>
-    <t>Kibi Government Hospital</t>
-  </si>
-  <si>
-    <t>AKWADUM_CHRIST_APOSTOLICE_CHURCH</t>
-  </si>
-  <si>
-    <t>Suhum_District_Hospital</t>
-  </si>
-  <si>
-    <t>Suhum District Hospital</t>
-  </si>
-  <si>
-    <t>ASIEDU</t>
-  </si>
-  <si>
-    <t>Atua_Government_Hospital</t>
-  </si>
-  <si>
-    <t>Atua Government Hospital</t>
-  </si>
-  <si>
-    <t>ASITEY_MANNWAM_PRESBY_CHURCH</t>
-  </si>
-  <si>
-    <t>Presby_Hospital_Donkorkrom</t>
-  </si>
-  <si>
-    <t>Presby Hospital Donkorkrom</t>
-  </si>
-  <si>
-    <t>AVUDZEGA</t>
-  </si>
-  <si>
-    <t>Jumapo_Health_Centre</t>
-  </si>
-  <si>
-    <t>Jumapo Health Centre</t>
-  </si>
-  <si>
-    <t>JUMAPO_MARKET</t>
-  </si>
-  <si>
-    <t>Koforidua_Polyclinic</t>
-  </si>
-  <si>
-    <t>Koforidua Polyclinic</t>
-  </si>
-  <si>
-    <t>New_Abirem_Hospital</t>
-  </si>
-  <si>
-    <t>New Abirem Hospital</t>
-  </si>
-  <si>
-    <t>NWINSO_CHIEF_PALACE</t>
-  </si>
-  <si>
-    <t>Tetteh_Quarshie_Memorial_Hospital</t>
-  </si>
-  <si>
-    <t>Tetteh Quarshie Memorial Hospital</t>
-  </si>
-  <si>
-    <t>POST_OFFICE</t>
-  </si>
-  <si>
-    <t>Holy_Family_Hospital_Nkawkaw</t>
-  </si>
-  <si>
-    <t>Holy Family Hospital Nkawkaw</t>
-  </si>
-  <si>
-    <t>SDA_SCHOOL</t>
-  </si>
-  <si>
-    <t>ZAABU_ZONGO_MOSQUE</t>
-  </si>
-  <si>
-    <t>Kaneshie_Polyclinic</t>
-  </si>
-  <si>
-    <t>Kaneshie Polyclinic</t>
-  </si>
-  <si>
-    <t>ABEKA_CHUBIS_WORLD</t>
-  </si>
-  <si>
-    <t>Ga_South_Municipal_Hospital</t>
-  </si>
-  <si>
-    <t>Ga South Municipal Hospital</t>
-  </si>
-  <si>
-    <t>AMSTERDAM_CLUB</t>
-  </si>
-  <si>
-    <t>ASSEMBLIES_OF_GOD_CHURCH</t>
-  </si>
-  <si>
-    <t>Ridge_Hospital</t>
-  </si>
-  <si>
-    <t>Ridge Hospital</t>
-  </si>
-  <si>
-    <t>ASYLUM_DOWN_CHRISTIAN_METH_SHS</t>
-  </si>
-  <si>
-    <t>OPD_Ridge_Hospital_Polyclinic</t>
-  </si>
-  <si>
-    <t>OPD Ridge Hospital (Polyclinic)</t>
-  </si>
-  <si>
-    <t>Trust_Hospital</t>
-  </si>
-  <si>
-    <t>Trust Hospital</t>
-  </si>
-  <si>
-    <t>LEKMA_Hospital</t>
-  </si>
-  <si>
-    <t>LEKMA Hospital</t>
-  </si>
-  <si>
-    <t>ECOBANK_LIMITED</t>
-  </si>
-  <si>
-    <t>Maamobi_General_Hopsital</t>
-  </si>
-  <si>
-    <t>Maamobi General Hopsital</t>
-  </si>
-  <si>
-    <t>FEEL_FREE_CHOP_BAR</t>
-  </si>
-  <si>
-    <t>Ga_West_Municipal_Hospital</t>
-  </si>
-  <si>
-    <t>Ga West Municipal Hospital</t>
-  </si>
-  <si>
-    <t>FERRIES_OF_LOVE_ACADEMY</t>
-  </si>
-  <si>
-    <t>GBAWE_ROYAL_PRIESTHOOD_SHOPPING_CENTRE</t>
-  </si>
-  <si>
-    <t>GRACE_AND_MERCY_SCHOOL</t>
-  </si>
-  <si>
-    <t>Mamprobi_Polyclinic</t>
-  </si>
-  <si>
-    <t>Mamprobi Polyclinic</t>
-  </si>
-  <si>
-    <t>Tema_General_Hospital</t>
-  </si>
-  <si>
-    <t>Tema General Hospital</t>
-  </si>
-  <si>
-    <t>LASHIBI_GOIL_FILLING_STATION</t>
-  </si>
-  <si>
-    <t>Dansoman_Polyclinic</t>
-  </si>
-  <si>
-    <t>Dansoman Polyclinic</t>
-  </si>
-  <si>
-    <t>MR_AMON_QUAYES_HOUSE</t>
-  </si>
-  <si>
-    <t>NIMA</t>
-  </si>
-  <si>
-    <t>OFOSU_OBLIE_WE</t>
-  </si>
-  <si>
-    <t>OKLUKOPE</t>
-  </si>
-  <si>
-    <t>Adenta_Amanfrom_Health_Centre</t>
-  </si>
-  <si>
-    <t>Adenta-Amanfrom Health Centre</t>
-  </si>
-  <si>
-    <t>SSNIT_FLATS_BLOCK_87</t>
-  </si>
-  <si>
-    <t>SUKURA_NEW_ROYAL_CLINIC</t>
-  </si>
-  <si>
-    <t>Tamale_West_Hospital</t>
-  </si>
-  <si>
-    <t>Tamale West Hospital</t>
-  </si>
-  <si>
-    <t>AFRICAN_DEV_ORG_FOR_MIGRATION</t>
-  </si>
-  <si>
-    <t>Tamale_East_Hospital</t>
-  </si>
-  <si>
-    <t>Tamale East Hospital</t>
-  </si>
-  <si>
-    <t>Binde_Rural_Hospital</t>
-  </si>
-  <si>
-    <t>Binde Rural Hospital</t>
-  </si>
-  <si>
-    <t>BUNKPURUGU</t>
-  </si>
-  <si>
-    <t>Kpandai_District_Hospital</t>
-  </si>
-  <si>
-    <t>Kpandai District Hospital</t>
-  </si>
-  <si>
-    <t>DISTRICT_ADMINISTRATION</t>
-  </si>
-  <si>
-    <t>Oti_River_Health_Centre</t>
-  </si>
-  <si>
-    <t>Oti River Health Centre</t>
-  </si>
-  <si>
-    <t>Kambagu_CHPS</t>
-  </si>
-  <si>
-    <t>Kambagu CHPS</t>
-  </si>
-  <si>
-    <t>KAMBAGU_TAMALE</t>
-  </si>
-  <si>
-    <t>NABBS_VIDEO_CENTRE</t>
-  </si>
-  <si>
-    <t>Salaga_District_Hospital</t>
-  </si>
-  <si>
-    <t>Salaga District Hospital</t>
-  </si>
-  <si>
-    <t>SANKRO</t>
-  </si>
-  <si>
-    <t>Bole_District_Hospital</t>
-  </si>
-  <si>
-    <t>Bole District Hospital</t>
-  </si>
-  <si>
-    <t>SENIOR_HIGH_SCHOOL</t>
-  </si>
-  <si>
-    <t>SIC_ESTATES</t>
-  </si>
-  <si>
-    <t>VRA_TRANSFORMER</t>
-  </si>
-  <si>
-    <t>Yendi_District_Hospital</t>
-  </si>
-  <si>
-    <t>Yendi District Hospital</t>
-  </si>
-  <si>
-    <t>YENDI_PRESBY_CHURCH_OLD</t>
-  </si>
-  <si>
-    <t>Bawku_Presbyterian_Hospital</t>
-  </si>
-  <si>
-    <t>Bawku Presbyterian Hospital</t>
-  </si>
-  <si>
-    <t>BANSI_NATINGA</t>
-  </si>
-  <si>
-    <t>Regional_Hospital</t>
-  </si>
-  <si>
-    <t>Regional Hospital</t>
-  </si>
-  <si>
-    <t>BLUE_BAR_G476</t>
-  </si>
-  <si>
-    <t>Bolgatanga_Health_Centre</t>
-  </si>
-  <si>
-    <t>Bolgatanga Health Centre</t>
-  </si>
-  <si>
-    <t>Zebilla_Hospital</t>
-  </si>
-  <si>
-    <t>Zebilla Hospital</t>
-  </si>
-  <si>
-    <t>DAGUNGA_CHIEFS_HOUSE</t>
-  </si>
-  <si>
-    <t>KUMBELINGU_NAYIRE</t>
-  </si>
-  <si>
-    <t>Wa_Regional_Hospital</t>
-  </si>
-  <si>
-    <t>Wa Regional Hospital</t>
-  </si>
-  <si>
-    <t>ADONIS_CINEMA_HALL</t>
-  </si>
-  <si>
-    <t>Wa_Urban_Health_Centre</t>
-  </si>
-  <si>
-    <t>Wa Urban Health Centre</t>
-  </si>
-  <si>
-    <t>Nandom_Hospital</t>
-  </si>
-  <si>
-    <t>Nandom Hospital</t>
-  </si>
-  <si>
-    <t>GENGENKPE_CHIEFS_PALACE</t>
-  </si>
-  <si>
-    <t>Gegenkpe_Health_Centre</t>
-  </si>
-  <si>
-    <t>Gegenkpe Health Centre</t>
-  </si>
-  <si>
-    <t>Nadawli_District_Hospital</t>
-  </si>
-  <si>
-    <t>Nadawli District Hospital</t>
-  </si>
-  <si>
-    <t>NATOR_R/C_PRIM_SCH</t>
-  </si>
-  <si>
-    <t>Nator_CHPS</t>
-  </si>
-  <si>
-    <t>Nator CHPS</t>
-  </si>
-  <si>
-    <t>Ketu_South_District_Hospital</t>
-  </si>
-  <si>
-    <t>Ketu South District Hospital</t>
-  </si>
-  <si>
-    <t>2ND_CHIEF_HOUSE_TORGBUI_EKLE</t>
-  </si>
-  <si>
-    <t>Dambai_Health_Centre</t>
-  </si>
-  <si>
-    <t>Dambai Health Centre</t>
-  </si>
-  <si>
-    <t>BORAE_CHURCH_OF_PENTECOST</t>
-  </si>
-  <si>
-    <t>Keta_Municipal_Hospital</t>
-  </si>
-  <si>
-    <t>Keta Municipal Hospital</t>
-  </si>
-  <si>
-    <t>EX_MAJOR_SEDIZAFAS_HOUSE</t>
-  </si>
-  <si>
-    <t>Anyako_Health_Centre</t>
-  </si>
-  <si>
-    <t>Anyako Health Centre</t>
-  </si>
-  <si>
-    <t>Ho_Municipal_Hospital</t>
-  </si>
-  <si>
-    <t>Ho Municipal Hospital</t>
-  </si>
-  <si>
-    <t>HO_CHURCH_OF_THE_LORD_BROTHERHOOD</t>
-  </si>
-  <si>
-    <t>Hohoe_Municipal_Hospital</t>
-  </si>
-  <si>
-    <t>Hohoe Municipal Hospital</t>
-  </si>
-  <si>
-    <t>KREDJESUM</t>
-  </si>
-  <si>
-    <t>KUDZRA_R/C_PRIMARY_SCHOOL</t>
-  </si>
-  <si>
-    <t>Akatsi_District_Hospital</t>
-  </si>
-  <si>
-    <t>Akatsi District Hospital</t>
-  </si>
-  <si>
-    <t>L/A_JHS</t>
-  </si>
-  <si>
-    <t>POLICE_STATION</t>
-  </si>
-  <si>
-    <t>Kadjebi_Health_Centre</t>
-  </si>
-  <si>
-    <t>Kadjebi Health Centre</t>
-  </si>
-  <si>
-    <t>VOLTA_LAKE_TRANSPORT_COMPANY_LTD</t>
-  </si>
-  <si>
-    <t>Juabeso_Government_Hospital</t>
-  </si>
-  <si>
-    <t>Juabeso Government Hospital</t>
-  </si>
-  <si>
-    <t>ANHWIAFUTU</t>
-  </si>
-  <si>
-    <t>VRA_Hospital</t>
-  </si>
-  <si>
-    <t>VRA Hospital</t>
-  </si>
-  <si>
-    <t>ANNTO_STAR_HALL</t>
-  </si>
-  <si>
-    <t>Tarkwa_Municipal_Hospital</t>
-  </si>
-  <si>
-    <t>Tarkwa Municipal Hospital</t>
-  </si>
-  <si>
-    <t>CENTREAL_MARKET</t>
-  </si>
-  <si>
-    <t>Ellembelle_St_Martin_de_Porres_Hospital</t>
-  </si>
-  <si>
-    <t>Ellembelle St. Martin de Porres Hospital</t>
-  </si>
-  <si>
-    <t>COLD_STORE</t>
-  </si>
-  <si>
-    <t>Kikam_CHPS</t>
-  </si>
-  <si>
-    <t>Kikam CHPS</t>
-  </si>
-  <si>
-    <t>Kwesimintim_Hospital</t>
-  </si>
-  <si>
-    <t>Kwesimintim Hospital</t>
-  </si>
-  <si>
-    <t>EB_PHILS_INTERNATIONAL_SCHOOL</t>
-  </si>
-  <si>
-    <t>Assakai_CHPS</t>
-  </si>
-  <si>
-    <t>Assakai CHPS</t>
-  </si>
-  <si>
-    <t>Bogoso_Health_Centre</t>
-  </si>
-  <si>
-    <t>Bogoso Health Centre</t>
-  </si>
-  <si>
-    <t>HOUSE_NO_A28</t>
-  </si>
-  <si>
-    <t>Bondai_CHPS</t>
-  </si>
-  <si>
-    <t>Bondai CHPS</t>
-  </si>
-  <si>
-    <t>Wiawso_Governemt_Hospital</t>
-  </si>
-  <si>
-    <t>Wiawso Governemt Hospital</t>
-  </si>
-  <si>
-    <t>KWAME_ANIKROM</t>
-  </si>
-  <si>
-    <t>Wassa_Akropong_Government_Hospital</t>
-  </si>
-  <si>
-    <t>Wassa Akropong Government Hospital</t>
-  </si>
-  <si>
-    <t>OFORIKROM</t>
-  </si>
-  <si>
-    <t>Moseaso_CHPS</t>
-  </si>
-  <si>
-    <t>Moseaso CHPS</t>
-  </si>
-  <si>
-    <t>Essam_Government_Hospital</t>
-  </si>
-  <si>
-    <t>Essam Government Hospital</t>
-  </si>
-  <si>
-    <t>OLD_DEBISO_CHURCH_OF_PENTECOST_CENTRAL_CHAPEL</t>
-  </si>
-  <si>
-    <t>Takoradi_District_Hospital</t>
-  </si>
-  <si>
-    <t>Takoradi District Hospital</t>
-  </si>
-  <si>
-    <t>SAINT_ANNES_ANGLICAN_JHS</t>
-  </si>
-  <si>
-    <t>Other (text entry)</t>
-  </si>
-  <si>
     <t>today() &gt; date("2017-06-01") and today() &lt; date("2018-06-01")</t>
   </si>
   <si>
@@ -5627,7 +4667,109 @@
     <t xml:space="preserve">Enter all prices in Ghana Cedis. Enter -88 if respondent does not know, -99 for no response. </t>
   </si>
   <si>
-    <t>OFF_ppp_input::English</t>
+    <t>ppp_input::English</t>
+  </si>
+  <si>
+    <t>level1_list</t>
+  </si>
+  <si>
+    <t>level1_list_example1</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Level 1 Geography</t>
+  </si>
+  <si>
+    <t>level1_list_example2</t>
+  </si>
+  <si>
+    <t>level1_list_example3</t>
+  </si>
+  <si>
+    <t>level1_list_example4</t>
+  </si>
+  <si>
+    <t>level1_list_example5</t>
+  </si>
+  <si>
+    <t>level2_list</t>
+  </si>
+  <si>
+    <t>level2_list_example1</t>
+  </si>
+  <si>
+    <t>Level 2 Geography</t>
+  </si>
+  <si>
+    <t>level2_list_example2</t>
+  </si>
+  <si>
+    <t>level2_list_example3</t>
+  </si>
+  <si>
+    <t>level2_list_example4</t>
+  </si>
+  <si>
+    <t>level2_list_example5</t>
+  </si>
+  <si>
+    <t>level3_list</t>
+  </si>
+  <si>
+    <t>level3_list_example1</t>
+  </si>
+  <si>
+    <t>Level 3 Geography</t>
+  </si>
+  <si>
+    <t>level3_list_example2</t>
+  </si>
+  <si>
+    <t>level3_list_example3</t>
+  </si>
+  <si>
+    <t>level3_list_example4</t>
+  </si>
+  <si>
+    <t>level3_list_example5</t>
+  </si>
+  <si>
+    <t>EA_list</t>
+  </si>
+  <si>
+    <t>EA_list_example1</t>
+  </si>
+  <si>
+    <t>EA_list_example2</t>
+  </si>
+  <si>
+    <t>EA_list_example3</t>
+  </si>
+  <si>
+    <t>EA_list_example4</t>
+  </si>
+  <si>
+    <t>EA_list_example5</t>
+  </si>
+  <si>
+    <t>facility_name_list_example1</t>
+  </si>
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>facility_name_list_example2</t>
+  </si>
+  <si>
+    <t>facility_name_list_example3</t>
+  </si>
+  <si>
+    <t>facility_name_list_example4</t>
+  </si>
+  <si>
+    <t>facility_name_list_example5</t>
   </si>
 </sst>
 </file>
@@ -5814,7 +4956,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="865">
+  <cellStyleXfs count="873">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6684,8 +5826,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6907,8 +6057,9 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="865">
+  <cellStyles count="873">
     <cellStyle name="20% - Accent6" xfId="860" builtinId="50"/>
     <cellStyle name="Excel Built-in Normal" xfId="228"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -7341,6 +6492,10 @@
     <cellStyle name="Followed Hyperlink" xfId="859" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="862" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="872" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7771,6 +6926,10 @@
     <cellStyle name="Hyperlink" xfId="858" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="861" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="871" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="37"/>
     <cellStyle name="Normal 5" xfId="231"/>
@@ -8093,11 +7252,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN389"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -8168,7 +7327,7 @@
         <v>919</v>
       </c>
       <c r="Q1" s="80" t="s">
-        <v>1741</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="13" customHeight="1">
@@ -8429,7 +7588,7 @@
         <v>587</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>1674</v>
+        <v>1354</v>
       </c>
       <c r="D12" s="70"/>
       <c r="E12" s="70"/>
@@ -8561,7 +7720,7 @@
       <c r="J17" s="70"/>
       <c r="K17" s="70"/>
       <c r="L17" s="70" t="s">
-        <v>1675</v>
+        <v>1355</v>
       </c>
       <c r="N17" s="70"/>
     </row>
@@ -8709,7 +7868,7 @@
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="3" t="s">
-        <v>1670</v>
+        <v>1350</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
@@ -8802,10 +7961,10 @@
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="12" t="s">
-        <v>1671</v>
+        <v>1351</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>1672</v>
+        <v>1352</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>26</v>
@@ -8815,7 +7974,7 @@
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="3" t="s">
-        <v>1673</v>
+        <v>1353</v>
       </c>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
@@ -8942,7 +8101,7 @@
         <v>589</v>
       </c>
       <c r="C33" s="70" t="s">
-        <v>1676</v>
+        <v>1356</v>
       </c>
       <c r="K33" s="70" t="s">
         <v>26</v>
@@ -9216,7 +8375,7 @@
         <v>94</v>
       </c>
       <c r="C44" s="70" t="s">
-        <v>1677</v>
+        <v>1357</v>
       </c>
       <c r="J44" s="70" t="s">
         <v>93</v>
@@ -9267,7 +8426,7 @@
         <v>598</v>
       </c>
       <c r="D47" s="70" t="s">
-        <v>1678</v>
+        <v>1358</v>
       </c>
       <c r="H47" s="70" t="s">
         <v>35</v>
@@ -9281,7 +8440,7 @@
         <v>100</v>
       </c>
       <c r="C48" s="70" t="s">
-        <v>1679</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="49" spans="1:40" s="70" customFormat="1" ht="13" customHeight="1">
@@ -9300,7 +8459,7 @@
         <v>101</v>
       </c>
       <c r="L50" s="71" t="s">
-        <v>1680</v>
+        <v>1360</v>
       </c>
       <c r="N50" s="71"/>
     </row>
@@ -9312,10 +8471,10 @@
         <v>102</v>
       </c>
       <c r="C51" s="70" t="s">
-        <v>1681</v>
+        <v>1361</v>
       </c>
       <c r="D51" s="70" t="s">
-        <v>1682</v>
+        <v>1362</v>
       </c>
       <c r="E51" s="70"/>
       <c r="F51" s="70"/>
@@ -16421,7 +15580,7 @@
         <v>18</v>
       </c>
       <c r="J293" s="75" t="s">
-        <v>1698</v>
+        <v>1378</v>
       </c>
       <c r="P293" s="70"/>
       <c r="Q293" s="70"/>
@@ -17011,7 +16170,7 @@
         <v>798</v>
       </c>
       <c r="D316" s="70" t="s">
-        <v>1740</v>
+        <v>1420</v>
       </c>
       <c r="E316" s="26" t="s">
         <v>286</v>
@@ -19221,7 +18380,7 @@
         <v>392</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>1683</v>
+        <v>1363</v>
       </c>
       <c r="G24" s="73"/>
     </row>
@@ -19242,10 +18401,10 @@
         <v>391</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>1684</v>
+        <v>1364</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>1685</v>
+        <v>1365</v>
       </c>
       <c r="G26" s="73"/>
     </row>
@@ -19254,10 +18413,10 @@
         <v>391</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>1686</v>
+        <v>1366</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>1687</v>
+        <v>1367</v>
       </c>
       <c r="G27" s="73"/>
     </row>
@@ -19266,10 +18425,10 @@
         <v>391</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>1688</v>
+        <v>1368</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>1689</v>
+        <v>1369</v>
       </c>
       <c r="G28" s="73"/>
     </row>
@@ -19838,10 +18997,10 @@
         <v>449</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>1690</v>
+        <v>1370</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>1691</v>
+        <v>1371</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="4"/>
@@ -19852,10 +19011,10 @@
         <v>449</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>1692</v>
+        <v>1372</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>1693</v>
+        <v>1373</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="4"/>
@@ -19979,10 +19138,10 @@
         <v>449</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1694</v>
+        <v>1374</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>1695</v>
+        <v>1375</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="4"/>
@@ -20019,10 +19178,10 @@
         <v>449</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1696</v>
+        <v>1376</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>1697</v>
+        <v>1377</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="73"/>
@@ -20082,10 +19241,10 @@
         <v>572</v>
       </c>
       <c r="B93" s="32" t="s">
-        <v>1690</v>
+        <v>1370</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>1691</v>
+        <v>1371</v>
       </c>
       <c r="G93" s="73"/>
     </row>
@@ -20094,10 +19253,10 @@
         <v>572</v>
       </c>
       <c r="B94" s="32" t="s">
-        <v>1692</v>
+        <v>1372</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>1693</v>
+        <v>1373</v>
       </c>
       <c r="G94" s="73"/>
     </row>
@@ -20202,10 +19361,10 @@
         <v>572</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1694</v>
+        <v>1374</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>1695</v>
+        <v>1375</v>
       </c>
       <c r="G103" s="73"/>
     </row>
@@ -20238,10 +19397,10 @@
         <v>572</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1696</v>
+        <v>1376</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>1697</v>
+        <v>1377</v>
       </c>
       <c r="G106" s="73"/>
     </row>
@@ -21114,10 +20273,10 @@
         <v>573</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1699</v>
+        <v>1379</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1700</v>
+        <v>1380</v>
       </c>
       <c r="G179" s="73"/>
     </row>
@@ -21126,10 +20285,10 @@
         <v>573</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1701</v>
+        <v>1381</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1702</v>
+        <v>1382</v>
       </c>
       <c r="G180" s="73"/>
     </row>
@@ -21138,10 +20297,10 @@
         <v>573</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1703</v>
+        <v>1383</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1704</v>
+        <v>1384</v>
       </c>
       <c r="G181" s="73"/>
     </row>
@@ -21150,10 +20309,10 @@
         <v>573</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1705</v>
+        <v>1385</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1706</v>
+        <v>1386</v>
       </c>
       <c r="G182" s="73"/>
     </row>
@@ -21162,10 +20321,10 @@
         <v>573</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1707</v>
+        <v>1387</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1708</v>
+        <v>1388</v>
       </c>
       <c r="G183" s="73"/>
     </row>
@@ -21174,10 +20333,10 @@
         <v>573</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1709</v>
+        <v>1389</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1710</v>
+        <v>1390</v>
       </c>
       <c r="G184" s="73"/>
     </row>
@@ -21186,10 +20345,10 @@
         <v>573</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1711</v>
+        <v>1391</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1711</v>
+        <v>1391</v>
       </c>
       <c r="G185" s="73"/>
     </row>
@@ -21201,7 +20360,7 @@
         <v>575</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1712</v>
+        <v>1392</v>
       </c>
       <c r="G186" s="73"/>
     </row>
@@ -21210,10 +20369,10 @@
         <v>573</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1713</v>
+        <v>1393</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1714</v>
+        <v>1394</v>
       </c>
       <c r="G187" s="73"/>
     </row>
@@ -21234,10 +20393,10 @@
         <v>573</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1715</v>
+        <v>1395</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1716</v>
+        <v>1396</v>
       </c>
       <c r="G189" s="73"/>
     </row>
@@ -21246,10 +20405,10 @@
         <v>573</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1717</v>
+        <v>1397</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1718</v>
+        <v>1398</v>
       </c>
       <c r="G190" s="73"/>
     </row>
@@ -21261,7 +20420,7 @@
         <v>924</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1719</v>
+        <v>1399</v>
       </c>
       <c r="G191" s="73"/>
     </row>
@@ -21270,10 +20429,10 @@
         <v>573</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1720</v>
+        <v>1400</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1720</v>
+        <v>1400</v>
       </c>
       <c r="G192" s="73"/>
     </row>
@@ -21282,10 +20441,10 @@
         <v>573</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1721</v>
+        <v>1401</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1722</v>
+        <v>1402</v>
       </c>
       <c r="G193" s="73"/>
     </row>
@@ -21294,10 +20453,10 @@
         <v>573</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1723</v>
+        <v>1403</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1724</v>
+        <v>1404</v>
       </c>
       <c r="G194" s="73"/>
     </row>
@@ -21306,10 +20465,10 @@
         <v>573</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1725</v>
+        <v>1405</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1726</v>
+        <v>1406</v>
       </c>
       <c r="G195" s="73"/>
     </row>
@@ -21321,7 +20480,7 @@
         <v>576</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1727</v>
+        <v>1407</v>
       </c>
       <c r="G196" s="73"/>
     </row>
@@ -21330,10 +20489,10 @@
         <v>573</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>1728</v>
+        <v>1408</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1729</v>
+        <v>1409</v>
       </c>
       <c r="G197" s="73"/>
     </row>
@@ -21459,10 +20618,10 @@
         <v>868</v>
       </c>
       <c r="B207" s="23" t="s">
-        <v>1730</v>
+        <v>1410</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>1731</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="208" spans="1:8" s="76" customFormat="1">
@@ -21470,10 +20629,10 @@
         <v>868</v>
       </c>
       <c r="B208" s="23" t="s">
-        <v>1732</v>
+        <v>1412</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>1733</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="209" spans="1:11" s="76" customFormat="1">
@@ -21481,10 +20640,10 @@
         <v>868</v>
       </c>
       <c r="B209" s="23" t="s">
-        <v>1734</v>
+        <v>1414</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>1735</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="210" spans="1:11" s="76" customFormat="1">
@@ -21492,10 +20651,10 @@
         <v>868</v>
       </c>
       <c r="B210" s="23" t="s">
-        <v>1736</v>
+        <v>1416</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>1737</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="211" spans="1:11" s="76" customFormat="1">
@@ -21503,10 +20662,10 @@
         <v>868</v>
       </c>
       <c r="B211" s="23" t="s">
-        <v>1738</v>
+        <v>1418</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>1739</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="212" spans="1:11" s="76" customFormat="1">
@@ -21767,13 +20926,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D235"/>
+  <dimension ref="A1:E235"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" sqref="A1:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21784,7 +20943,7 @@
     <col min="4" max="4" width="54.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="69" t="s">
         <v>363</v>
       </c>
@@ -21792,3290 +20951,1644 @@
         <v>1</v>
       </c>
       <c r="C1" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="D1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="68" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="81" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E2" s="81"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="81" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E3" s="81"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="81" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E4" s="81"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="81" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E5" s="81"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="81" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D6" s="81" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E6" s="81"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="81" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E7" s="81"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="81" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B8" s="81" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E8" s="81"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="81" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E9" s="81"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="81" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E10" s="81"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="81" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E11" s="81"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="81" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B12" s="81" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E12" s="81"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="81" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E13" s="81"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="81" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D14" s="81" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E14" s="81"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="81" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E15" s="81"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="81" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B16" s="81" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E16" s="81"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="81" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="81"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="81" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B18" s="81" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="81"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="81" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B19" s="81" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C19" s="81" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D19" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="81"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="81" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B20" s="81" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C20" s="81" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D20" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="81"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="81" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B21" s="81" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="81"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="81" t="s">
         <v>1349</v>
       </c>
-      <c r="B2" s="68" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="68" t="s">
+      <c r="B22" s="81" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C22" s="81" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D22" s="81" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E22" s="81"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="81" t="s">
         <v>1349</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="68" t="s">
+      <c r="B23" s="81" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C23" s="81" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D23" s="81" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E23" s="81"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="81" t="s">
         <v>1349</v>
       </c>
-      <c r="B4" s="68" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="68" t="s">
+      <c r="B24" s="81" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C24" s="81" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D24" s="81" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E24" s="81"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="81" t="s">
         <v>1349</v>
       </c>
-      <c r="B5" s="68" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="68" t="s">
+      <c r="B25" s="81" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C25" s="81" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E25" s="81"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="81" t="s">
         <v>1349</v>
       </c>
-      <c r="B6" s="68" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>1362</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>1371</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B13" s="68" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C13" s="68" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D13" s="68" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D14" s="68" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B15" s="68" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C15" s="68" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>1386</v>
-      </c>
-      <c r="C16" s="68" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D16" s="68" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B17" s="68" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C17" s="68" t="s">
-        <v>1390</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C18" s="68" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C19" s="68" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C20" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D21" s="68" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B22" s="68" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D22" s="68" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B23" s="68" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C23" s="68" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D23" s="68" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B24" s="68" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C24" s="68" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D24" s="68" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B25" s="68" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D25" s="68" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B26" s="68" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C26" s="68" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D26" s="68" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B27" s="68" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C27" s="68" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D27" s="68" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B28" s="68" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C28" s="68" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D28" s="68" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B29" s="68" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C29" s="68" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D29" s="68" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B30" s="68" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C30" s="68" t="s">
-        <v>1421</v>
-      </c>
-      <c r="D30" s="68" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B31" s="68" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C31" s="68" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D31" s="68" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B32" s="68" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C32" s="68" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D32" s="68" t="s">
-        <v>1425</v>
-      </c>
+      <c r="B26" s="81" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C26" s="81" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D26" s="81" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E26" s="81"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="68"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B33" s="68" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C33" s="68" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D33" s="68" t="s">
-        <v>1430</v>
-      </c>
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B34" s="68" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C34" s="68" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D34" s="68" t="s">
-        <v>1433</v>
-      </c>
+      <c r="A34" s="68"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B35" s="68" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C35" s="68" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D35" s="68" t="s">
-        <v>1433</v>
-      </c>
+      <c r="A35" s="68"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B36" s="68" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C36" s="68" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D36" s="68" t="s">
-        <v>1438</v>
-      </c>
+      <c r="A36" s="68"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B37" s="68" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C37" s="68" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D37" s="68" t="s">
-        <v>1441</v>
-      </c>
+      <c r="A37" s="68"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B38" s="68" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C38" s="68" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D38" s="68" t="s">
-        <v>1441</v>
-      </c>
+      <c r="A38" s="68"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B39" s="68" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C39" s="68" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D39" s="68" t="s">
-        <v>1444</v>
-      </c>
+      <c r="A39" s="68"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B40" s="68" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C40" s="68" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D40" s="68" t="s">
-        <v>1447</v>
-      </c>
+      <c r="A40" s="68"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B41" s="68" t="s">
-        <v>1448</v>
-      </c>
-      <c r="C41" s="68" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D41" s="68" t="s">
-        <v>1450</v>
-      </c>
+      <c r="A41" s="68"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B42" s="68" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C42" s="68" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D42" s="68" t="s">
-        <v>1450</v>
-      </c>
+      <c r="A42" s="68"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B43" s="68" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C43" s="68" t="s">
-        <v>1454</v>
-      </c>
-      <c r="D43" s="68" t="s">
-        <v>1450</v>
-      </c>
+      <c r="A43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B44" s="68" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C44" s="68" t="s">
-        <v>1456</v>
-      </c>
-      <c r="D44" s="68" t="s">
-        <v>1457</v>
-      </c>
+      <c r="A44" s="68"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B45" s="68" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C45" s="68" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D45" s="68" t="s">
-        <v>1460</v>
-      </c>
+      <c r="A45" s="68"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B46" s="68" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C46" s="68" t="s">
-        <v>1462</v>
-      </c>
-      <c r="D46" s="68" t="s">
-        <v>1460</v>
-      </c>
+      <c r="A46" s="68"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B47" s="68" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C47" s="68" t="s">
-        <v>1464</v>
-      </c>
-      <c r="D47" s="68" t="s">
-        <v>1465</v>
-      </c>
+      <c r="A47" s="68"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B48" s="68" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C48" s="68" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D48" s="68" t="s">
-        <v>1465</v>
-      </c>
+      <c r="A48" s="68"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="68"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B49" s="68" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C49" s="68" t="s">
-        <v>1469</v>
-      </c>
-      <c r="D49" s="68" t="s">
-        <v>1465</v>
-      </c>
+      <c r="A49" s="68"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B50" s="68" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C50" s="68" t="s">
-        <v>1470</v>
-      </c>
-      <c r="D50" s="68" t="s">
-        <v>1471</v>
-      </c>
+      <c r="A50" s="68"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B51" s="68" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C51" s="68" t="s">
-        <v>1473</v>
-      </c>
-      <c r="D51" s="68" t="s">
-        <v>1471</v>
-      </c>
+      <c r="A51" s="68"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B52" s="68" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C52" s="68" t="s">
-        <v>1475</v>
-      </c>
-      <c r="D52" s="68" t="s">
-        <v>1476</v>
-      </c>
+      <c r="A52" s="68"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B53" s="68" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C53" s="68" t="s">
-        <v>1478</v>
-      </c>
-      <c r="D53" s="68" t="s">
-        <v>1479</v>
-      </c>
+      <c r="A53" s="68"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B54" s="68" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C54" s="68" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D54" s="68" t="s">
-        <v>1482</v>
-      </c>
+      <c r="A54" s="68"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B55" s="68" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C55" s="68" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D55" s="68" t="s">
-        <v>1483</v>
-      </c>
+      <c r="A55" s="68"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="68"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B56" s="68" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C56" s="68" t="s">
-        <v>1485</v>
-      </c>
-      <c r="D56" s="68" t="s">
-        <v>1486</v>
-      </c>
+      <c r="A56" s="68"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B57" s="68" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C57" s="68" t="s">
-        <v>1488</v>
-      </c>
-      <c r="D57" s="68" t="s">
-        <v>1489</v>
-      </c>
+      <c r="A57" s="68"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B58" s="68" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C58" s="68" t="s">
-        <v>1491</v>
-      </c>
-      <c r="D58" s="68" t="s">
-        <v>1492</v>
-      </c>
+      <c r="A58" s="68"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B59" s="68" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C59" s="68" t="s">
-        <v>1494</v>
-      </c>
-      <c r="D59" s="68" t="s">
-        <v>1495</v>
-      </c>
+      <c r="A59" s="68"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B60" s="68" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C60" s="68" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D60" s="68" t="s">
-        <v>1498</v>
-      </c>
+      <c r="A60" s="68"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B61" s="68" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C61" s="68" t="s">
-        <v>1500</v>
-      </c>
-      <c r="D61" s="68" t="s">
-        <v>1498</v>
-      </c>
+      <c r="A61" s="68"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B62" s="68" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C62" s="68" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D62" s="68" t="s">
-        <v>1503</v>
-      </c>
+      <c r="A62" s="68"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B63" s="68" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C63" s="68" t="s">
-        <v>1505</v>
-      </c>
-      <c r="D63" s="68" t="s">
-        <v>1506</v>
-      </c>
+      <c r="A63" s="68"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B64" s="68" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C64" s="68" t="s">
-        <v>1508</v>
-      </c>
-      <c r="D64" s="68" t="s">
-        <v>1509</v>
-      </c>
+      <c r="A64" s="68"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B65" s="68" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C65" s="68" t="s">
-        <v>1485</v>
-      </c>
-      <c r="D65" s="68" t="s">
-        <v>1510</v>
-      </c>
+      <c r="A65" s="68"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B66" s="68" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C66" s="68" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D66" s="68" t="s">
-        <v>1513</v>
-      </c>
+      <c r="A66" s="68"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B67" s="68" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C67" s="68" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D67" s="68" t="s">
-        <v>1516</v>
-      </c>
+      <c r="A67" s="68"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="68"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B68" s="68" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C68" s="68" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D68" s="68" t="s">
-        <v>1517</v>
-      </c>
+      <c r="A68" s="68"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B69" s="68" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C69" s="68" t="s">
-        <v>1519</v>
-      </c>
-      <c r="D69" s="68" t="s">
-        <v>1520</v>
-      </c>
+      <c r="A69" s="68"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="68"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B70" s="68" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C70" s="68" t="s">
-        <v>1522</v>
-      </c>
-      <c r="D70" s="68" t="s">
-        <v>1520</v>
-      </c>
+      <c r="A70" s="68"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="68"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B71" s="68" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C71" s="68" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D71" s="68" t="s">
-        <v>1520</v>
-      </c>
+      <c r="A71" s="68"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B72" s="68" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C72" s="68" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D72" s="68" t="s">
-        <v>1527</v>
-      </c>
+      <c r="A72" s="68"/>
+      <c r="B72" s="68"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="68"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B73" s="68" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C73" s="68" t="s">
-        <v>1529</v>
-      </c>
-      <c r="D73" s="68" t="s">
-        <v>1530</v>
-      </c>
+      <c r="A73" s="68"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="68"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B74" s="68" t="s">
-        <v>1531</v>
-      </c>
-      <c r="C74" s="68" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D74" s="68" t="s">
-        <v>1533</v>
-      </c>
+      <c r="A74" s="68"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="68"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B75" s="68" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C75" s="68" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D75" s="68" t="s">
-        <v>1534</v>
-      </c>
+      <c r="A75" s="68"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="68"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B76" s="68" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C76" s="68" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D76" s="68" t="s">
-        <v>1535</v>
-      </c>
+      <c r="A76" s="68"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="68"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B77" s="68" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C77" s="68" t="s">
-        <v>1537</v>
-      </c>
-      <c r="D77" s="68" t="s">
-        <v>1535</v>
-      </c>
+      <c r="A77" s="68"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="68"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B78" s="68" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C78" s="68" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D78" s="68" t="s">
-        <v>1540</v>
-      </c>
+      <c r="A78" s="68"/>
+      <c r="B78" s="68"/>
+      <c r="C78" s="68"/>
+      <c r="D78" s="68"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B79" s="68" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C79" s="68" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D79" s="68" t="s">
-        <v>1543</v>
-      </c>
+      <c r="A79" s="68"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B80" s="68" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C80" s="68" t="s">
-        <v>1529</v>
-      </c>
-      <c r="D80" s="68" t="s">
-        <v>1544</v>
-      </c>
+      <c r="A80" s="68"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="68"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B81" s="68" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C81" s="68" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D81" s="68" t="s">
-        <v>1545</v>
-      </c>
+      <c r="A81" s="68"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="68"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B82" s="68" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C82" s="68" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D82" s="68" t="s">
-        <v>1546</v>
-      </c>
+      <c r="A82" s="68"/>
+      <c r="B82" s="68"/>
+      <c r="C82" s="68"/>
+      <c r="D82" s="68"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B83" s="68" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C83" s="68" t="s">
-        <v>1548</v>
-      </c>
-      <c r="D83" s="68" t="s">
-        <v>1549</v>
-      </c>
+      <c r="A83" s="68"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B84" s="68" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C84" s="68" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D84" s="68" t="s">
-        <v>1550</v>
-      </c>
+      <c r="A84" s="68"/>
+      <c r="B84" s="68"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="68"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B85" s="68" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C85" s="68" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D85" s="68" t="s">
-        <v>1553</v>
-      </c>
+      <c r="A85" s="68"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B86" s="68" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C86" s="68" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D86" s="68" t="s">
-        <v>1553</v>
-      </c>
+      <c r="A86" s="68"/>
+      <c r="B86" s="68"/>
+      <c r="C86" s="68"/>
+      <c r="D86" s="68"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B87" s="68" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C87" s="68" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D87" s="68" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A87" s="68"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="68"/>
+      <c r="D87" s="68"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B88" s="68" t="s">
-        <v>1559</v>
-      </c>
-      <c r="C88" s="68" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D88" s="68" t="s">
-        <v>1561</v>
-      </c>
+      <c r="A88" s="68"/>
+      <c r="B88" s="68"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="68"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B89" s="68" t="s">
-        <v>1562</v>
-      </c>
-      <c r="C89" s="68" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D89" s="68" t="s">
-        <v>1561</v>
-      </c>
+      <c r="A89" s="68"/>
+      <c r="B89" s="68"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="68"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B90" s="68" t="s">
-        <v>1564</v>
-      </c>
-      <c r="C90" s="68" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D90" s="68" t="s">
-        <v>1566</v>
-      </c>
+      <c r="A90" s="68"/>
+      <c r="B90" s="68"/>
+      <c r="C90" s="68"/>
+      <c r="D90" s="68"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B91" s="68" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C91" s="68" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D91" s="68" t="s">
-        <v>1567</v>
-      </c>
+      <c r="A91" s="68"/>
+      <c r="B91" s="68"/>
+      <c r="C91" s="68"/>
+      <c r="D91" s="68"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B92" s="68" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C92" s="68" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D92" s="68" t="s">
-        <v>1567</v>
-      </c>
+      <c r="A92" s="68"/>
+      <c r="B92" s="68"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B93" s="68" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C93" s="68" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D93" s="68" t="s">
-        <v>1570</v>
-      </c>
+      <c r="A93" s="68"/>
+      <c r="B93" s="68"/>
+      <c r="C93" s="68"/>
+      <c r="D93" s="68"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B94" s="68" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C94" s="68" t="s">
-        <v>1572</v>
-      </c>
-      <c r="D94" s="68" t="s">
-        <v>1573</v>
-      </c>
+      <c r="A94" s="68"/>
+      <c r="B94" s="68"/>
+      <c r="C94" s="68"/>
+      <c r="D94" s="68"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B95" s="68" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C95" s="68" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D95" s="68" t="s">
-        <v>1574</v>
-      </c>
+      <c r="A95" s="68"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="68"/>
+      <c r="D95" s="68"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B96" s="68" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C96" s="68" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D96" s="68" t="s">
-        <v>1574</v>
-      </c>
+      <c r="A96" s="68"/>
+      <c r="B96" s="68"/>
+      <c r="C96" s="68"/>
+      <c r="D96" s="68"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B97" s="68" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C97" s="68" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D97" s="68" t="s">
-        <v>1575</v>
-      </c>
+      <c r="A97" s="68"/>
+      <c r="B97" s="68"/>
+      <c r="C97" s="68"/>
+      <c r="D97" s="68"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B98" s="68" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C98" s="68" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D98" s="68" t="s">
-        <v>1575</v>
-      </c>
+      <c r="A98" s="68"/>
+      <c r="B98" s="68"/>
+      <c r="C98" s="68"/>
+      <c r="D98" s="68"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B99" s="68" t="s">
-        <v>1576</v>
-      </c>
-      <c r="C99" s="68" t="s">
-        <v>1577</v>
-      </c>
-      <c r="D99" s="68" t="s">
-        <v>1578</v>
-      </c>
+      <c r="A99" s="68"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="68"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B100" s="68" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C100" s="68" t="s">
-        <v>1580</v>
-      </c>
-      <c r="D100" s="68" t="s">
-        <v>1581</v>
-      </c>
+      <c r="A100" s="68"/>
+      <c r="B100" s="68"/>
+      <c r="C100" s="68"/>
+      <c r="D100" s="68"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B101" s="68" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C101" s="68" t="s">
-        <v>1583</v>
-      </c>
-      <c r="D101" s="68" t="s">
-        <v>1584</v>
-      </c>
+      <c r="A101" s="68"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="68"/>
+      <c r="D101" s="68"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B102" s="68" t="s">
-        <v>1585</v>
-      </c>
-      <c r="C102" s="68" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D102" s="68" t="s">
-        <v>1584</v>
-      </c>
+      <c r="A102" s="68"/>
+      <c r="B102" s="68"/>
+      <c r="C102" s="68"/>
+      <c r="D102" s="68"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B103" s="68" t="s">
-        <v>1587</v>
-      </c>
-      <c r="C103" s="68" t="s">
-        <v>1588</v>
-      </c>
-      <c r="D103" s="68" t="s">
-        <v>1589</v>
-      </c>
+      <c r="A103" s="68"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="68"/>
+      <c r="D103" s="68"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B104" s="68" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C104" s="68" t="s">
-        <v>1583</v>
-      </c>
-      <c r="D104" s="68" t="s">
-        <v>1590</v>
-      </c>
+      <c r="A104" s="68"/>
+      <c r="B104" s="68"/>
+      <c r="C104" s="68"/>
+      <c r="D104" s="68"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B105" s="68" t="s">
-        <v>1585</v>
-      </c>
-      <c r="C105" s="68" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D105" s="68" t="s">
-        <v>1590</v>
-      </c>
+      <c r="A105" s="68"/>
+      <c r="B105" s="68"/>
+      <c r="C105" s="68"/>
+      <c r="D105" s="68"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B106" s="68" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C106" s="68" t="s">
-        <v>1592</v>
-      </c>
-      <c r="D106" s="68" t="s">
-        <v>1593</v>
-      </c>
+      <c r="A106" s="68"/>
+      <c r="B106" s="68"/>
+      <c r="C106" s="68"/>
+      <c r="D106" s="68"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B107" s="68" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C107" s="68" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D107" s="68" t="s">
-        <v>1593</v>
-      </c>
+      <c r="A107" s="68"/>
+      <c r="B107" s="68"/>
+      <c r="C107" s="68"/>
+      <c r="D107" s="68"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B108" s="68" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C108" s="68" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D108" s="68" t="s">
-        <v>1598</v>
-      </c>
+      <c r="A108" s="68"/>
+      <c r="B108" s="68"/>
+      <c r="C108" s="68"/>
+      <c r="D108" s="68"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B109" s="68" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C109" s="68" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D109" s="68" t="s">
-        <v>1598</v>
-      </c>
+      <c r="A109" s="68"/>
+      <c r="B109" s="68"/>
+      <c r="C109" s="68"/>
+      <c r="D109" s="68"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B110" s="68" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C110" s="68" t="s">
-        <v>1602</v>
-      </c>
-      <c r="D110" s="68" t="s">
-        <v>1603</v>
-      </c>
+      <c r="A110" s="68"/>
+      <c r="B110" s="68"/>
+      <c r="C110" s="68"/>
+      <c r="D110" s="68"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B111" s="68" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C111" s="68" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D111" s="68" t="s">
-        <v>1603</v>
-      </c>
+      <c r="A111" s="68"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="68"/>
+      <c r="D111" s="68"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B112" s="68" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C112" s="68" t="s">
-        <v>1607</v>
-      </c>
-      <c r="D112" s="68" t="s">
-        <v>1608</v>
-      </c>
+      <c r="A112" s="68"/>
+      <c r="B112" s="68"/>
+      <c r="C112" s="68"/>
+      <c r="D112" s="68"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B113" s="68" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C113" s="68" t="s">
-        <v>1610</v>
-      </c>
-      <c r="D113" s="68" t="s">
-        <v>1611</v>
-      </c>
+      <c r="A113" s="68"/>
+      <c r="B113" s="68"/>
+      <c r="C113" s="68"/>
+      <c r="D113" s="68"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B114" s="68" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C114" s="68" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D114" s="68" t="s">
-        <v>1614</v>
-      </c>
+      <c r="A114" s="68"/>
+      <c r="B114" s="68"/>
+      <c r="C114" s="68"/>
+      <c r="D114" s="68"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B115" s="68" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C115" s="68" t="s">
-        <v>1616</v>
-      </c>
-      <c r="D115" s="68" t="s">
-        <v>1614</v>
-      </c>
+      <c r="A115" s="68"/>
+      <c r="B115" s="68"/>
+      <c r="C115" s="68"/>
+      <c r="D115" s="68"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B116" s="68" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C116" s="68" t="s">
-        <v>1618</v>
-      </c>
-      <c r="D116" s="68" t="s">
-        <v>1619</v>
-      </c>
+      <c r="A116" s="68"/>
+      <c r="B116" s="68"/>
+      <c r="C116" s="68"/>
+      <c r="D116" s="68"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B117" s="68" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C117" s="68" t="s">
-        <v>1621</v>
-      </c>
-      <c r="D117" s="68" t="s">
-        <v>1622</v>
-      </c>
+      <c r="A117" s="68"/>
+      <c r="B117" s="68"/>
+      <c r="C117" s="68"/>
+      <c r="D117" s="68"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B118" s="68" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C118" s="68" t="s">
-        <v>1621</v>
-      </c>
-      <c r="D118" s="68" t="s">
-        <v>1623</v>
-      </c>
+      <c r="A118" s="68"/>
+      <c r="B118" s="68"/>
+      <c r="C118" s="68"/>
+      <c r="D118" s="68"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B119" s="68" t="s">
-        <v>1624</v>
-      </c>
-      <c r="C119" s="68" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D119" s="68" t="s">
-        <v>1626</v>
-      </c>
+      <c r="A119" s="68"/>
+      <c r="B119" s="68"/>
+      <c r="C119" s="68"/>
+      <c r="D119" s="68"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B120" s="68" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C120" s="68" t="s">
-        <v>1618</v>
-      </c>
-      <c r="D120" s="68" t="s">
-        <v>1627</v>
-      </c>
+      <c r="A120" s="68"/>
+      <c r="B120" s="68"/>
+      <c r="C120" s="68"/>
+      <c r="D120" s="68"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B121" s="68" t="s">
-        <v>1628</v>
-      </c>
-      <c r="C121" s="68" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D121" s="68" t="s">
-        <v>1630</v>
-      </c>
+      <c r="A121" s="68"/>
+      <c r="B121" s="68"/>
+      <c r="C121" s="68"/>
+      <c r="D121" s="68"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B122" s="68" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C122" s="68" t="s">
-        <v>1632</v>
-      </c>
-      <c r="D122" s="68" t="s">
-        <v>1633</v>
-      </c>
+      <c r="A122" s="68"/>
+      <c r="B122" s="68"/>
+      <c r="C122" s="68"/>
+      <c r="D122" s="68"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B123" s="68" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C123" s="68" t="s">
-        <v>1635</v>
-      </c>
-      <c r="D123" s="68" t="s">
-        <v>1636</v>
-      </c>
+      <c r="A123" s="68"/>
+      <c r="B123" s="68"/>
+      <c r="C123" s="68"/>
+      <c r="D123" s="68"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B124" s="68" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C124" s="68" t="s">
-        <v>1638</v>
-      </c>
-      <c r="D124" s="68" t="s">
-        <v>1639</v>
-      </c>
+      <c r="A124" s="68"/>
+      <c r="B124" s="68"/>
+      <c r="C124" s="68"/>
+      <c r="D124" s="68"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B125" s="68" t="s">
-        <v>1640</v>
-      </c>
-      <c r="C125" s="68" t="s">
-        <v>1641</v>
-      </c>
-      <c r="D125" s="68" t="s">
-        <v>1642</v>
-      </c>
+      <c r="A125" s="68"/>
+      <c r="B125" s="68"/>
+      <c r="C125" s="68"/>
+      <c r="D125" s="68"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B126" s="68" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C126" s="68" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D126" s="68" t="s">
-        <v>1642</v>
-      </c>
+      <c r="A126" s="68"/>
+      <c r="B126" s="68"/>
+      <c r="C126" s="68"/>
+      <c r="D126" s="68"/>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B127" s="68" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C127" s="68" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D127" s="68" t="s">
-        <v>1647</v>
-      </c>
+      <c r="A127" s="68"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="68"/>
+      <c r="D127" s="68"/>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B128" s="68" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C128" s="68" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D128" s="68" t="s">
-        <v>1647</v>
-      </c>
+      <c r="A128" s="68"/>
+      <c r="B128" s="68"/>
+      <c r="C128" s="68"/>
+      <c r="D128" s="68"/>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B129" s="68" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C129" s="68" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D129" s="68" t="s">
-        <v>1652</v>
-      </c>
+      <c r="A129" s="68"/>
+      <c r="B129" s="68"/>
+      <c r="C129" s="68"/>
+      <c r="D129" s="68"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B130" s="68" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C130" s="68" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D130" s="68" t="s">
-        <v>1652</v>
-      </c>
+      <c r="A130" s="68"/>
+      <c r="B130" s="68"/>
+      <c r="C130" s="68"/>
+      <c r="D130" s="68"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B131" s="68" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C131" s="68" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D131" s="68" t="s">
-        <v>1657</v>
-      </c>
+      <c r="A131" s="68"/>
+      <c r="B131" s="68"/>
+      <c r="C131" s="68"/>
+      <c r="D131" s="68"/>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B132" s="68" t="s">
-        <v>1658</v>
-      </c>
-      <c r="C132" s="68" t="s">
-        <v>1659</v>
-      </c>
-      <c r="D132" s="68" t="s">
-        <v>1660</v>
-      </c>
+      <c r="A132" s="68"/>
+      <c r="B132" s="68"/>
+      <c r="C132" s="68"/>
+      <c r="D132" s="68"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B133" s="68" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C133" s="68" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D133" s="68" t="s">
-        <v>1660</v>
-      </c>
+      <c r="A133" s="68"/>
+      <c r="B133" s="68"/>
+      <c r="C133" s="68"/>
+      <c r="D133" s="68"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B134" s="68" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C134" s="68" t="s">
-        <v>1664</v>
-      </c>
-      <c r="D134" s="68" t="s">
-        <v>1665</v>
-      </c>
+      <c r="A134" s="68"/>
+      <c r="B134" s="68"/>
+      <c r="C134" s="68"/>
+      <c r="D134" s="68"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B135" s="68" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C135" s="68" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D135" s="68" t="s">
-        <v>1668</v>
-      </c>
+      <c r="A135" s="68"/>
+      <c r="B135" s="68"/>
+      <c r="C135" s="68"/>
+      <c r="D135" s="68"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B136" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C136" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D136" s="68" t="s">
-        <v>1608</v>
-      </c>
+      <c r="A136" s="68"/>
+      <c r="B136" s="68"/>
+      <c r="C136" s="68"/>
+      <c r="D136" s="68"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B137" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C137" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D137" s="68" t="s">
-        <v>1352</v>
-      </c>
+      <c r="A137" s="68"/>
+      <c r="B137" s="68"/>
+      <c r="C137" s="68"/>
+      <c r="D137" s="68"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B138" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C138" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D138" s="68" t="s">
-        <v>1513</v>
-      </c>
+      <c r="A138" s="68"/>
+      <c r="B138" s="68"/>
+      <c r="C138" s="68"/>
+      <c r="D138" s="68"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B139" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C139" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D139" s="68" t="s">
-        <v>1444</v>
-      </c>
+      <c r="A139" s="68"/>
+      <c r="B139" s="68"/>
+      <c r="C139" s="68"/>
+      <c r="D139" s="68"/>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B140" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C140" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D140" s="68" t="s">
-        <v>1593</v>
-      </c>
+      <c r="A140" s="68"/>
+      <c r="B140" s="68"/>
+      <c r="C140" s="68"/>
+      <c r="D140" s="68"/>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B141" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C141" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D141" s="68" t="s">
-        <v>1553</v>
-      </c>
+      <c r="A141" s="68"/>
+      <c r="B141" s="68"/>
+      <c r="C141" s="68"/>
+      <c r="D141" s="68"/>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B142" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C142" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D142" s="68" t="s">
-        <v>1447</v>
-      </c>
+      <c r="A142" s="68"/>
+      <c r="B142" s="68"/>
+      <c r="C142" s="68"/>
+      <c r="D142" s="68"/>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B143" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C143" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D143" s="68" t="s">
-        <v>1482</v>
-      </c>
+      <c r="A143" s="68"/>
+      <c r="B143" s="68"/>
+      <c r="C143" s="68"/>
+      <c r="D143" s="68"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B144" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C144" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D144" s="68" t="s">
-        <v>1483</v>
-      </c>
+      <c r="A144" s="68"/>
+      <c r="B144" s="68"/>
+      <c r="C144" s="68"/>
+      <c r="D144" s="68"/>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B145" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C145" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D145" s="68" t="s">
-        <v>1486</v>
-      </c>
+      <c r="A145" s="68"/>
+      <c r="B145" s="68"/>
+      <c r="C145" s="68"/>
+      <c r="D145" s="68"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B146" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C146" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D146" s="68" t="s">
-        <v>1355</v>
-      </c>
+      <c r="A146" s="68"/>
+      <c r="B146" s="68"/>
+      <c r="C146" s="68"/>
+      <c r="D146" s="68"/>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B147" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C147" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D147" s="68" t="s">
-        <v>1413</v>
-      </c>
+      <c r="A147" s="68"/>
+      <c r="B147" s="68"/>
+      <c r="C147" s="68"/>
+      <c r="D147" s="68"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B148" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C148" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D148" s="68" t="s">
-        <v>1516</v>
-      </c>
+      <c r="A148" s="68"/>
+      <c r="B148" s="68"/>
+      <c r="C148" s="68"/>
+      <c r="D148" s="68"/>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B149" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C149" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D149" s="68" t="s">
-        <v>1633</v>
-      </c>
+      <c r="A149" s="68"/>
+      <c r="B149" s="68"/>
+      <c r="C149" s="68"/>
+      <c r="D149" s="68"/>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B150" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C150" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D150" s="68" t="s">
-        <v>1636</v>
-      </c>
+      <c r="A150" s="68"/>
+      <c r="B150" s="68"/>
+      <c r="C150" s="68"/>
+      <c r="D150" s="68"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B151" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C151" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D151" s="68" t="s">
-        <v>1360</v>
-      </c>
+      <c r="A151" s="68"/>
+      <c r="B151" s="68"/>
+      <c r="C151" s="68"/>
+      <c r="D151" s="68"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B152" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C152" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D152" s="68" t="s">
-        <v>1489</v>
-      </c>
+      <c r="A152" s="68"/>
+      <c r="B152" s="68"/>
+      <c r="C152" s="68"/>
+      <c r="D152" s="68"/>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B153" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C153" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D153" s="68" t="s">
-        <v>1492</v>
-      </c>
+      <c r="A153" s="68"/>
+      <c r="B153" s="68"/>
+      <c r="C153" s="68"/>
+      <c r="D153" s="68"/>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B154" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C154" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D154" s="68" t="s">
-        <v>1517</v>
-      </c>
+      <c r="A154" s="68"/>
+      <c r="B154" s="68"/>
+      <c r="C154" s="68"/>
+      <c r="D154" s="68"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B155" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C155" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D155" s="68" t="s">
-        <v>1450</v>
-      </c>
+      <c r="A155" s="68"/>
+      <c r="B155" s="68"/>
+      <c r="C155" s="68"/>
+      <c r="D155" s="68"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B156" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C156" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D156" s="68" t="s">
-        <v>1520</v>
-      </c>
+      <c r="A156" s="68"/>
+      <c r="B156" s="68"/>
+      <c r="C156" s="68"/>
+      <c r="D156" s="68"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B157" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C157" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D157" s="68" t="s">
-        <v>1363</v>
-      </c>
+      <c r="A157" s="68"/>
+      <c r="B157" s="68"/>
+      <c r="C157" s="68"/>
+      <c r="D157" s="68"/>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B158" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C158" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D158" s="68" t="s">
-        <v>1366</v>
-      </c>
+      <c r="A158" s="68"/>
+      <c r="B158" s="68"/>
+      <c r="C158" s="68"/>
+      <c r="D158" s="68"/>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B159" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C159" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D159" s="68" t="s">
-        <v>1369</v>
-      </c>
+      <c r="A159" s="68"/>
+      <c r="B159" s="68"/>
+      <c r="C159" s="68"/>
+      <c r="D159" s="68"/>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B160" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C160" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D160" s="68" t="s">
-        <v>1495</v>
-      </c>
+      <c r="A160" s="68"/>
+      <c r="B160" s="68"/>
+      <c r="C160" s="68"/>
+      <c r="D160" s="68"/>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B161" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C161" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D161" s="68" t="s">
-        <v>1581</v>
-      </c>
+      <c r="A161" s="68"/>
+      <c r="B161" s="68"/>
+      <c r="C161" s="68"/>
+      <c r="D161" s="68"/>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B162" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C162" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D162" s="68" t="s">
-        <v>1416</v>
-      </c>
+      <c r="A162" s="68"/>
+      <c r="B162" s="68"/>
+      <c r="C162" s="68"/>
+      <c r="D162" s="68"/>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B163" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C163" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D163" s="68" t="s">
-        <v>1584</v>
-      </c>
+      <c r="A163" s="68"/>
+      <c r="B163" s="68"/>
+      <c r="C163" s="68"/>
+      <c r="D163" s="68"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B164" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C164" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D164" s="68" t="s">
-        <v>1611</v>
-      </c>
+      <c r="A164" s="68"/>
+      <c r="B164" s="68"/>
+      <c r="C164" s="68"/>
+      <c r="D164" s="68"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B165" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C165" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D165" s="68" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A165" s="68"/>
+      <c r="B165" s="68"/>
+      <c r="C165" s="68"/>
+      <c r="D165" s="68"/>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B166" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C166" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D166" s="68" t="s">
-        <v>1457</v>
-      </c>
+      <c r="A166" s="68"/>
+      <c r="B166" s="68"/>
+      <c r="C166" s="68"/>
+      <c r="D166" s="68"/>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B167" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C167" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D167" s="68" t="s">
-        <v>1639</v>
-      </c>
+      <c r="A167" s="68"/>
+      <c r="B167" s="68"/>
+      <c r="C167" s="68"/>
+      <c r="D167" s="68"/>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B168" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C168" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D168" s="68" t="s">
-        <v>1372</v>
-      </c>
+      <c r="A168" s="68"/>
+      <c r="B168" s="68"/>
+      <c r="C168" s="68"/>
+      <c r="D168" s="68"/>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B169" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C169" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D169" s="68" t="s">
-        <v>1642</v>
-      </c>
+      <c r="A169" s="68"/>
+      <c r="B169" s="68"/>
+      <c r="C169" s="68"/>
+      <c r="D169" s="68"/>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B170" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C170" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D170" s="68" t="s">
-        <v>1375</v>
-      </c>
+      <c r="A170" s="68"/>
+      <c r="B170" s="68"/>
+      <c r="C170" s="68"/>
+      <c r="D170" s="68"/>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B171" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C171" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D171" s="68" t="s">
-        <v>1589</v>
-      </c>
+      <c r="A171" s="68"/>
+      <c r="B171" s="68"/>
+      <c r="C171" s="68"/>
+      <c r="D171" s="68"/>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B172" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C172" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D172" s="68" t="s">
-        <v>1419</v>
-      </c>
+      <c r="A172" s="68"/>
+      <c r="B172" s="68"/>
+      <c r="C172" s="68"/>
+      <c r="D172" s="68"/>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B173" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C173" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D173" s="68" t="s">
-        <v>1561</v>
-      </c>
+      <c r="A173" s="68"/>
+      <c r="B173" s="68"/>
+      <c r="C173" s="68"/>
+      <c r="D173" s="68"/>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B174" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C174" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D174" s="68" t="s">
-        <v>1422</v>
-      </c>
+      <c r="A174" s="68"/>
+      <c r="B174" s="68"/>
+      <c r="C174" s="68"/>
+      <c r="D174" s="68"/>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B175" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C175" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D175" s="68" t="s">
-        <v>1647</v>
-      </c>
+      <c r="A175" s="68"/>
+      <c r="B175" s="68"/>
+      <c r="C175" s="68"/>
+      <c r="D175" s="68"/>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B176" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C176" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D176" s="68" t="s">
-        <v>1380</v>
-      </c>
+      <c r="A176" s="68"/>
+      <c r="B176" s="68"/>
+      <c r="C176" s="68"/>
+      <c r="D176" s="68"/>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B177" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C177" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D177" s="68" t="s">
-        <v>1527</v>
-      </c>
+      <c r="A177" s="68"/>
+      <c r="B177" s="68"/>
+      <c r="C177" s="68"/>
+      <c r="D177" s="68"/>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B178" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C178" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D178" s="68" t="s">
-        <v>1460</v>
-      </c>
+      <c r="A178" s="68"/>
+      <c r="B178" s="68"/>
+      <c r="C178" s="68"/>
+      <c r="D178" s="68"/>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B179" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C179" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D179" s="68" t="s">
-        <v>1614</v>
-      </c>
+      <c r="A179" s="68"/>
+      <c r="B179" s="68"/>
+      <c r="C179" s="68"/>
+      <c r="D179" s="68"/>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B180" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C180" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D180" s="68" t="s">
-        <v>1530</v>
-      </c>
+      <c r="A180" s="68"/>
+      <c r="B180" s="68"/>
+      <c r="C180" s="68"/>
+      <c r="D180" s="68"/>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B181" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C181" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D181" s="68" t="s">
-        <v>1533</v>
-      </c>
+      <c r="A181" s="68"/>
+      <c r="B181" s="68"/>
+      <c r="C181" s="68"/>
+      <c r="D181" s="68"/>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B182" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C182" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D182" s="68" t="s">
-        <v>1425</v>
-      </c>
+      <c r="A182" s="68"/>
+      <c r="B182" s="68"/>
+      <c r="C182" s="68"/>
+      <c r="D182" s="68"/>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B183" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C183" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D183" s="68" t="s">
-        <v>1534</v>
-      </c>
+      <c r="A183" s="68"/>
+      <c r="B183" s="68"/>
+      <c r="C183" s="68"/>
+      <c r="D183" s="68"/>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B184" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C184" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D184" s="68" t="s">
-        <v>1598</v>
-      </c>
+      <c r="A184" s="68"/>
+      <c r="B184" s="68"/>
+      <c r="C184" s="68"/>
+      <c r="D184" s="68"/>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B185" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C185" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D185" s="68" t="s">
-        <v>1535</v>
-      </c>
+      <c r="A185" s="68"/>
+      <c r="B185" s="68"/>
+      <c r="C185" s="68"/>
+      <c r="D185" s="68"/>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B186" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C186" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D186" s="68" t="s">
-        <v>1619</v>
-      </c>
+      <c r="A186" s="68"/>
+      <c r="B186" s="68"/>
+      <c r="C186" s="68"/>
+      <c r="D186" s="68"/>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B187" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C187" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D187" s="68" t="s">
-        <v>1652</v>
-      </c>
+      <c r="A187" s="68"/>
+      <c r="B187" s="68"/>
+      <c r="C187" s="68"/>
+      <c r="D187" s="68"/>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B188" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C188" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D188" s="68" t="s">
-        <v>1498</v>
-      </c>
+      <c r="A188" s="68"/>
+      <c r="B188" s="68"/>
+      <c r="C188" s="68"/>
+      <c r="D188" s="68"/>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B189" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C189" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D189" s="68" t="s">
-        <v>1381</v>
-      </c>
+      <c r="A189" s="68"/>
+      <c r="B189" s="68"/>
+      <c r="C189" s="68"/>
+      <c r="D189" s="68"/>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B190" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C190" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D190" s="68" t="s">
-        <v>1566</v>
-      </c>
+      <c r="A190" s="68"/>
+      <c r="B190" s="68"/>
+      <c r="C190" s="68"/>
+      <c r="D190" s="68"/>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B191" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C191" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D191" s="68" t="s">
-        <v>1465</v>
-      </c>
+      <c r="A191" s="68"/>
+      <c r="B191" s="68"/>
+      <c r="C191" s="68"/>
+      <c r="D191" s="68"/>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B192" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C192" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D192" s="68" t="s">
-        <v>1382</v>
-      </c>
+      <c r="A192" s="68"/>
+      <c r="B192" s="68"/>
+      <c r="C192" s="68"/>
+      <c r="D192" s="68"/>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B193" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C193" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D193" s="68" t="s">
-        <v>1622</v>
-      </c>
+      <c r="A193" s="68"/>
+      <c r="B193" s="68"/>
+      <c r="C193" s="68"/>
+      <c r="D193" s="68"/>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B194" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C194" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D194" s="68" t="s">
-        <v>1623</v>
-      </c>
+      <c r="A194" s="68"/>
+      <c r="B194" s="68"/>
+      <c r="C194" s="68"/>
+      <c r="D194" s="68"/>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B195" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C195" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D195" s="68" t="s">
-        <v>1385</v>
-      </c>
+      <c r="A195" s="68"/>
+      <c r="B195" s="68"/>
+      <c r="C195" s="68"/>
+      <c r="D195" s="68"/>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B196" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C196" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D196" s="68" t="s">
-        <v>1590</v>
-      </c>
+      <c r="A196" s="68"/>
+      <c r="B196" s="68"/>
+      <c r="C196" s="68"/>
+      <c r="D196" s="68"/>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B197" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C197" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D197" s="68" t="s">
-        <v>1388</v>
-      </c>
+      <c r="A197" s="68"/>
+      <c r="B197" s="68"/>
+      <c r="C197" s="68"/>
+      <c r="D197" s="68"/>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B198" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C198" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D198" s="68" t="s">
-        <v>1657</v>
-      </c>
+      <c r="A198" s="68"/>
+      <c r="B198" s="68"/>
+      <c r="C198" s="68"/>
+      <c r="D198" s="68"/>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B199" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C199" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D199" s="68" t="s">
-        <v>1626</v>
-      </c>
+      <c r="A199" s="68"/>
+      <c r="B199" s="68"/>
+      <c r="C199" s="68"/>
+      <c r="D199" s="68"/>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B200" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C200" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D200" s="68" t="s">
-        <v>1540</v>
-      </c>
+      <c r="A200" s="68"/>
+      <c r="B200" s="68"/>
+      <c r="C200" s="68"/>
+      <c r="D200" s="68"/>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B201" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C201" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D201" s="68" t="s">
-        <v>1395</v>
-      </c>
+      <c r="A201" s="68"/>
+      <c r="B201" s="68"/>
+      <c r="C201" s="68"/>
+      <c r="D201" s="68"/>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B202" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C202" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D202" s="68" t="s">
-        <v>1471</v>
-      </c>
+      <c r="A202" s="68"/>
+      <c r="B202" s="68"/>
+      <c r="C202" s="68"/>
+      <c r="D202" s="68"/>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B203" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C203" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D203" s="68" t="s">
-        <v>1543</v>
-      </c>
+      <c r="A203" s="68"/>
+      <c r="B203" s="68"/>
+      <c r="C203" s="68"/>
+      <c r="D203" s="68"/>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B204" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C204" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D204" s="68" t="s">
-        <v>1567</v>
-      </c>
+      <c r="A204" s="68"/>
+      <c r="B204" s="68"/>
+      <c r="C204" s="68"/>
+      <c r="D204" s="68"/>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B205" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C205" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D205" s="68" t="s">
-        <v>1603</v>
-      </c>
+      <c r="A205" s="68"/>
+      <c r="B205" s="68"/>
+      <c r="C205" s="68"/>
+      <c r="D205" s="68"/>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B206" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C206" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D206" s="68" t="s">
-        <v>1544</v>
-      </c>
+      <c r="A206" s="68"/>
+      <c r="B206" s="68"/>
+      <c r="C206" s="68"/>
+      <c r="D206" s="68"/>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B207" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C207" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D207" s="68" t="s">
-        <v>1430</v>
-      </c>
+      <c r="A207" s="68"/>
+      <c r="B207" s="68"/>
+      <c r="C207" s="68"/>
+      <c r="D207" s="68"/>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B208" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C208" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D208" s="68" t="s">
-        <v>1503</v>
-      </c>
+      <c r="A208" s="68"/>
+      <c r="B208" s="68"/>
+      <c r="C208" s="68"/>
+      <c r="D208" s="68"/>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B209" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C209" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D209" s="68" t="s">
-        <v>1660</v>
-      </c>
+      <c r="A209" s="68"/>
+      <c r="B209" s="68"/>
+      <c r="C209" s="68"/>
+      <c r="D209" s="68"/>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B210" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C210" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D210" s="68" t="s">
-        <v>1545</v>
-      </c>
+      <c r="A210" s="68"/>
+      <c r="B210" s="68"/>
+      <c r="C210" s="68"/>
+      <c r="D210" s="68"/>
     </row>
     <row r="211" spans="1:4">
-      <c r="A211" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B211" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C211" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D211" s="68" t="s">
-        <v>1546</v>
-      </c>
+      <c r="A211" s="68"/>
+      <c r="B211" s="68"/>
+      <c r="C211" s="68"/>
+      <c r="D211" s="68"/>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B212" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C212" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D212" s="68" t="s">
-        <v>1476</v>
-      </c>
+      <c r="A212" s="68"/>
+      <c r="B212" s="68"/>
+      <c r="C212" s="68"/>
+      <c r="D212" s="68"/>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B213" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C213" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D213" s="68" t="s">
-        <v>1665</v>
-      </c>
+      <c r="A213" s="68"/>
+      <c r="B213" s="68"/>
+      <c r="C213" s="68"/>
+      <c r="D213" s="68"/>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B214" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C214" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D214" s="68" t="s">
-        <v>1433</v>
-      </c>
+      <c r="A214" s="68"/>
+      <c r="B214" s="68"/>
+      <c r="C214" s="68"/>
+      <c r="D214" s="68"/>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B215" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C215" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D215" s="68" t="s">
-        <v>1438</v>
-      </c>
+      <c r="A215" s="68"/>
+      <c r="B215" s="68"/>
+      <c r="C215" s="68"/>
+      <c r="D215" s="68"/>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B216" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C216" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D216" s="68" t="s">
-        <v>1400</v>
-      </c>
+      <c r="A216" s="68"/>
+      <c r="B216" s="68"/>
+      <c r="C216" s="68"/>
+      <c r="D216" s="68"/>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B217" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C217" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D217" s="68" t="s">
-        <v>1405</v>
-      </c>
+      <c r="A217" s="68"/>
+      <c r="B217" s="68"/>
+      <c r="C217" s="68"/>
+      <c r="D217" s="68"/>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B218" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C218" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D218" s="68" t="s">
-        <v>1406</v>
-      </c>
+      <c r="A218" s="68"/>
+      <c r="B218" s="68"/>
+      <c r="C218" s="68"/>
+      <c r="D218" s="68"/>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B219" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C219" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D219" s="68" t="s">
-        <v>1627</v>
-      </c>
+      <c r="A219" s="68"/>
+      <c r="B219" s="68"/>
+      <c r="C219" s="68"/>
+      <c r="D219" s="68"/>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B220" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C220" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D220" s="68" t="s">
-        <v>1506</v>
-      </c>
+      <c r="A220" s="68"/>
+      <c r="B220" s="68"/>
+      <c r="C220" s="68"/>
+      <c r="D220" s="68"/>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B221" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C221" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D221" s="68" t="s">
-        <v>1407</v>
-      </c>
+      <c r="A221" s="68"/>
+      <c r="B221" s="68"/>
+      <c r="C221" s="68"/>
+      <c r="D221" s="68"/>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B222" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C222" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D222" s="68" t="s">
-        <v>1668</v>
-      </c>
+      <c r="A222" s="68"/>
+      <c r="B222" s="68"/>
+      <c r="C222" s="68"/>
+      <c r="D222" s="68"/>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B223" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C223" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D223" s="68" t="s">
-        <v>1570</v>
-      </c>
+      <c r="A223" s="68"/>
+      <c r="B223" s="68"/>
+      <c r="C223" s="68"/>
+      <c r="D223" s="68"/>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B224" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C224" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D224" s="68" t="s">
-        <v>1509</v>
-      </c>
+      <c r="A224" s="68"/>
+      <c r="B224" s="68"/>
+      <c r="C224" s="68"/>
+      <c r="D224" s="68"/>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B225" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C225" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D225" s="68" t="s">
-        <v>1573</v>
-      </c>
+      <c r="A225" s="68"/>
+      <c r="B225" s="68"/>
+      <c r="C225" s="68"/>
+      <c r="D225" s="68"/>
     </row>
     <row r="226" spans="1:4">
-      <c r="A226" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B226" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C226" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D226" s="68" t="s">
-        <v>1479</v>
-      </c>
+      <c r="A226" s="68"/>
+      <c r="B226" s="68"/>
+      <c r="C226" s="68"/>
+      <c r="D226" s="68"/>
     </row>
     <row r="227" spans="1:4">
-      <c r="A227" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B227" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C227" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D227" s="68" t="s">
-        <v>1574</v>
-      </c>
+      <c r="A227" s="68"/>
+      <c r="B227" s="68"/>
+      <c r="C227" s="68"/>
+      <c r="D227" s="68"/>
     </row>
     <row r="228" spans="1:4">
-      <c r="A228" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B228" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C228" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D228" s="68" t="s">
-        <v>1549</v>
-      </c>
+      <c r="A228" s="68"/>
+      <c r="B228" s="68"/>
+      <c r="C228" s="68"/>
+      <c r="D228" s="68"/>
     </row>
     <row r="229" spans="1:4">
-      <c r="A229" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B229" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C229" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D229" s="68" t="s">
-        <v>1550</v>
-      </c>
+      <c r="A229" s="68"/>
+      <c r="B229" s="68"/>
+      <c r="C229" s="68"/>
+      <c r="D229" s="68"/>
     </row>
     <row r="230" spans="1:4">
-      <c r="A230" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B230" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C230" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D230" s="68" t="s">
-        <v>1441</v>
-      </c>
+      <c r="A230" s="68"/>
+      <c r="B230" s="68"/>
+      <c r="C230" s="68"/>
+      <c r="D230" s="68"/>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B231" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C231" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D231" s="68" t="s">
-        <v>1630</v>
-      </c>
+      <c r="A231" s="68"/>
+      <c r="B231" s="68"/>
+      <c r="C231" s="68"/>
+      <c r="D231" s="68"/>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B232" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C232" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D232" s="68" t="s">
-        <v>1575</v>
-      </c>
+      <c r="A232" s="68"/>
+      <c r="B232" s="68"/>
+      <c r="C232" s="68"/>
+      <c r="D232" s="68"/>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B233" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C233" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D233" s="68" t="s">
-        <v>1578</v>
-      </c>
+      <c r="A233" s="68"/>
+      <c r="B233" s="68"/>
+      <c r="C233" s="68"/>
+      <c r="D233" s="68"/>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B234" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C234" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D234" s="68" t="s">
-        <v>1510</v>
-      </c>
+      <c r="A234" s="68"/>
+      <c r="B234" s="68"/>
+      <c r="C234" s="68"/>
+      <c r="D234" s="68"/>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="68" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B235" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C235" s="68" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D235" s="68" t="s">
-        <v>1410</v>
-      </c>
+      <c r="A235" s="68"/>
+      <c r="B235" s="68"/>
+      <c r="C235" s="68"/>
+      <c r="D235" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
